--- a/lesson-11-scrapy/scrap-cs-faculty/faculty-UIUC-CS.xlsx
+++ b/lesson-11-scrapy/scrap-cs-faculty/faculty-UIUC-CS.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Faculty" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="635">
   <si>
     <t>name</t>
   </si>
@@ -1915,7 +1915,10 @@
     <t>zilles@illinois.edu</t>
   </si>
   <si>
-    <t>UIUC-CS</t>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Univ Illinois Urbana-Champaign</t>
   </si>
 </sst>
 </file>
@@ -2358,8 +2361,11 @@
       <c r="K2" t="s">
         <v>512</v>
       </c>
+      <c r="N2" t="s">
+        <v>633</v>
+      </c>
       <c r="O2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2381,8 +2387,11 @@
       <c r="K3" t="s">
         <v>513</v>
       </c>
+      <c r="N3" t="s">
+        <v>633</v>
+      </c>
       <c r="O3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2404,8 +2413,11 @@
       <c r="K4" t="s">
         <v>514</v>
       </c>
+      <c r="N4" t="s">
+        <v>633</v>
+      </c>
       <c r="O4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2427,8 +2439,11 @@
       <c r="K5" t="s">
         <v>515</v>
       </c>
+      <c r="N5" t="s">
+        <v>633</v>
+      </c>
       <c r="O5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2447,8 +2462,11 @@
       <c r="K6" t="s">
         <v>516</v>
       </c>
+      <c r="N6" t="s">
+        <v>633</v>
+      </c>
       <c r="O6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2470,8 +2488,11 @@
       <c r="K7" t="s">
         <v>517</v>
       </c>
+      <c r="N7" t="s">
+        <v>633</v>
+      </c>
       <c r="O7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2493,8 +2514,11 @@
       <c r="K8" t="s">
         <v>518</v>
       </c>
+      <c r="N8" t="s">
+        <v>633</v>
+      </c>
       <c r="O8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2516,8 +2540,11 @@
       <c r="K9" t="s">
         <v>519</v>
       </c>
+      <c r="N9" t="s">
+        <v>633</v>
+      </c>
       <c r="O9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2539,8 +2566,11 @@
       <c r="K10" t="s">
         <v>520</v>
       </c>
+      <c r="N10" t="s">
+        <v>633</v>
+      </c>
       <c r="O10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2559,8 +2589,11 @@
       <c r="K11" t="s">
         <v>521</v>
       </c>
+      <c r="N11" t="s">
+        <v>633</v>
+      </c>
       <c r="O11" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2582,8 +2615,11 @@
       <c r="K12" t="s">
         <v>522</v>
       </c>
+      <c r="N12" t="s">
+        <v>633</v>
+      </c>
       <c r="O12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2605,8 +2641,11 @@
       <c r="K13" t="s">
         <v>523</v>
       </c>
+      <c r="N13" t="s">
+        <v>633</v>
+      </c>
       <c r="O13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2628,8 +2667,11 @@
       <c r="K14" t="s">
         <v>524</v>
       </c>
+      <c r="N14" t="s">
+        <v>633</v>
+      </c>
       <c r="O14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2651,8 +2693,11 @@
       <c r="K15" t="s">
         <v>525</v>
       </c>
+      <c r="N15" t="s">
+        <v>633</v>
+      </c>
       <c r="O15" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2674,8 +2719,11 @@
       <c r="K16" t="s">
         <v>526</v>
       </c>
+      <c r="N16" t="s">
+        <v>633</v>
+      </c>
       <c r="O16" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2697,8 +2745,11 @@
       <c r="K17" t="s">
         <v>527</v>
       </c>
+      <c r="N17" t="s">
+        <v>633</v>
+      </c>
       <c r="O17" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2720,8 +2771,11 @@
       <c r="K18" t="s">
         <v>528</v>
       </c>
+      <c r="N18" t="s">
+        <v>633</v>
+      </c>
       <c r="O18" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2743,8 +2797,11 @@
       <c r="K19" t="s">
         <v>529</v>
       </c>
+      <c r="N19" t="s">
+        <v>633</v>
+      </c>
       <c r="O19" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2766,8 +2823,11 @@
       <c r="K20" t="s">
         <v>530</v>
       </c>
+      <c r="N20" t="s">
+        <v>633</v>
+      </c>
       <c r="O20" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2786,8 +2846,11 @@
       <c r="K21" t="s">
         <v>531</v>
       </c>
+      <c r="N21" t="s">
+        <v>633</v>
+      </c>
       <c r="O21" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2806,8 +2869,11 @@
       <c r="K22" t="s">
         <v>532</v>
       </c>
+      <c r="N22" t="s">
+        <v>633</v>
+      </c>
       <c r="O22" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2829,8 +2895,11 @@
       <c r="K23" t="s">
         <v>533</v>
       </c>
+      <c r="N23" t="s">
+        <v>633</v>
+      </c>
       <c r="O23" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2849,8 +2918,11 @@
       <c r="K24" t="s">
         <v>534</v>
       </c>
+      <c r="N24" t="s">
+        <v>633</v>
+      </c>
       <c r="O24" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2869,8 +2941,11 @@
       <c r="K25" t="s">
         <v>535</v>
       </c>
+      <c r="N25" t="s">
+        <v>633</v>
+      </c>
       <c r="O25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2892,8 +2967,11 @@
       <c r="K26" t="s">
         <v>536</v>
       </c>
+      <c r="N26" t="s">
+        <v>633</v>
+      </c>
       <c r="O26" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2912,8 +2990,11 @@
       <c r="K27" t="s">
         <v>537</v>
       </c>
+      <c r="N27" t="s">
+        <v>633</v>
+      </c>
       <c r="O27" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2935,8 +3016,11 @@
       <c r="K28" t="s">
         <v>538</v>
       </c>
+      <c r="N28" t="s">
+        <v>633</v>
+      </c>
       <c r="O28" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2958,8 +3042,11 @@
       <c r="K29" t="s">
         <v>539</v>
       </c>
+      <c r="N29" t="s">
+        <v>633</v>
+      </c>
       <c r="O29" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2981,8 +3068,11 @@
       <c r="K30" t="s">
         <v>540</v>
       </c>
+      <c r="N30" t="s">
+        <v>633</v>
+      </c>
       <c r="O30" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3004,8 +3094,11 @@
       <c r="K31" t="s">
         <v>541</v>
       </c>
+      <c r="N31" t="s">
+        <v>633</v>
+      </c>
       <c r="O31" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3027,8 +3120,11 @@
       <c r="K32" t="s">
         <v>542</v>
       </c>
+      <c r="N32" t="s">
+        <v>633</v>
+      </c>
       <c r="O32" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -3050,8 +3146,11 @@
       <c r="K33" t="s">
         <v>543</v>
       </c>
+      <c r="N33" t="s">
+        <v>633</v>
+      </c>
       <c r="O33" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3073,8 +3172,11 @@
       <c r="K34" t="s">
         <v>544</v>
       </c>
+      <c r="N34" t="s">
+        <v>633</v>
+      </c>
       <c r="O34" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3096,8 +3198,11 @@
       <c r="K35" t="s">
         <v>545</v>
       </c>
+      <c r="N35" t="s">
+        <v>633</v>
+      </c>
       <c r="O35" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3119,8 +3224,11 @@
       <c r="K36" t="s">
         <v>546</v>
       </c>
+      <c r="N36" t="s">
+        <v>633</v>
+      </c>
       <c r="O36" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3139,8 +3247,11 @@
       <c r="K37" t="s">
         <v>547</v>
       </c>
+      <c r="N37" t="s">
+        <v>633</v>
+      </c>
       <c r="O37" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3162,8 +3273,11 @@
       <c r="K38" t="s">
         <v>548</v>
       </c>
+      <c r="N38" t="s">
+        <v>633</v>
+      </c>
       <c r="O38" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3185,8 +3299,11 @@
       <c r="K39" t="s">
         <v>549</v>
       </c>
+      <c r="N39" t="s">
+        <v>633</v>
+      </c>
       <c r="O39" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3205,8 +3322,11 @@
       <c r="K40" t="s">
         <v>550</v>
       </c>
+      <c r="N40" t="s">
+        <v>633</v>
+      </c>
       <c r="O40" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3228,8 +3348,11 @@
       <c r="K41" t="s">
         <v>551</v>
       </c>
+      <c r="N41" t="s">
+        <v>633</v>
+      </c>
       <c r="O41" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3248,8 +3371,11 @@
       <c r="K42" t="s">
         <v>552</v>
       </c>
+      <c r="N42" t="s">
+        <v>633</v>
+      </c>
       <c r="O42" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3271,8 +3397,11 @@
       <c r="K43" t="s">
         <v>553</v>
       </c>
+      <c r="N43" t="s">
+        <v>633</v>
+      </c>
       <c r="O43" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3294,8 +3423,11 @@
       <c r="K44" t="s">
         <v>554</v>
       </c>
+      <c r="N44" t="s">
+        <v>633</v>
+      </c>
       <c r="O44" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3317,8 +3449,11 @@
       <c r="K45" t="s">
         <v>555</v>
       </c>
+      <c r="N45" t="s">
+        <v>633</v>
+      </c>
       <c r="O45" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3340,8 +3475,11 @@
       <c r="K46" t="s">
         <v>556</v>
       </c>
+      <c r="N46" t="s">
+        <v>633</v>
+      </c>
       <c r="O46" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3363,8 +3501,11 @@
       <c r="K47" t="s">
         <v>557</v>
       </c>
+      <c r="N47" t="s">
+        <v>633</v>
+      </c>
       <c r="O47" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3386,8 +3527,11 @@
       <c r="K48" t="s">
         <v>558</v>
       </c>
+      <c r="N48" t="s">
+        <v>633</v>
+      </c>
       <c r="O48" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3409,8 +3553,11 @@
       <c r="K49" t="s">
         <v>559</v>
       </c>
+      <c r="N49" t="s">
+        <v>633</v>
+      </c>
       <c r="O49" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3429,8 +3576,11 @@
       <c r="K50" t="s">
         <v>560</v>
       </c>
+      <c r="N50" t="s">
+        <v>633</v>
+      </c>
       <c r="O50" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3449,8 +3599,11 @@
       <c r="K51" t="s">
         <v>561</v>
       </c>
+      <c r="N51" t="s">
+        <v>633</v>
+      </c>
       <c r="O51" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3472,8 +3625,11 @@
       <c r="K52" t="s">
         <v>562</v>
       </c>
+      <c r="N52" t="s">
+        <v>633</v>
+      </c>
       <c r="O52" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3495,8 +3651,11 @@
       <c r="K53" t="s">
         <v>563</v>
       </c>
+      <c r="N53" t="s">
+        <v>633</v>
+      </c>
       <c r="O53" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3515,8 +3674,11 @@
       <c r="K54" t="s">
         <v>564</v>
       </c>
+      <c r="N54" t="s">
+        <v>633</v>
+      </c>
       <c r="O54" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3538,8 +3700,11 @@
       <c r="K55" t="s">
         <v>565</v>
       </c>
+      <c r="N55" t="s">
+        <v>633</v>
+      </c>
       <c r="O55" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3561,8 +3726,11 @@
       <c r="K56" t="s">
         <v>566</v>
       </c>
+      <c r="N56" t="s">
+        <v>633</v>
+      </c>
       <c r="O56" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3584,8 +3752,11 @@
       <c r="K57" t="s">
         <v>567</v>
       </c>
+      <c r="N57" t="s">
+        <v>633</v>
+      </c>
       <c r="O57" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3607,8 +3778,11 @@
       <c r="K58" t="s">
         <v>568</v>
       </c>
+      <c r="N58" t="s">
+        <v>633</v>
+      </c>
       <c r="O58" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3627,8 +3801,11 @@
       <c r="K59" t="s">
         <v>569</v>
       </c>
+      <c r="N59" t="s">
+        <v>633</v>
+      </c>
       <c r="O59" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3650,8 +3827,11 @@
       <c r="K60" t="s">
         <v>570</v>
       </c>
+      <c r="N60" t="s">
+        <v>633</v>
+      </c>
       <c r="O60" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3673,8 +3853,11 @@
       <c r="K61" t="s">
         <v>571</v>
       </c>
+      <c r="N61" t="s">
+        <v>633</v>
+      </c>
       <c r="O61" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3696,8 +3879,11 @@
       <c r="K62" t="s">
         <v>572</v>
       </c>
+      <c r="N62" t="s">
+        <v>633</v>
+      </c>
       <c r="O62" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3719,8 +3905,11 @@
       <c r="K63" t="s">
         <v>573</v>
       </c>
+      <c r="N63" t="s">
+        <v>633</v>
+      </c>
       <c r="O63" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3742,8 +3931,11 @@
       <c r="K64" t="s">
         <v>574</v>
       </c>
+      <c r="N64" t="s">
+        <v>633</v>
+      </c>
       <c r="O64" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3765,8 +3957,11 @@
       <c r="K65" t="s">
         <v>575</v>
       </c>
+      <c r="N65" t="s">
+        <v>633</v>
+      </c>
       <c r="O65" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3788,8 +3983,11 @@
       <c r="K66" t="s">
         <v>576</v>
       </c>
+      <c r="N66" t="s">
+        <v>633</v>
+      </c>
       <c r="O66" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3811,8 +4009,11 @@
       <c r="K67" t="s">
         <v>577</v>
       </c>
+      <c r="N67" t="s">
+        <v>633</v>
+      </c>
       <c r="O67" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3834,8 +4035,11 @@
       <c r="K68" t="s">
         <v>578</v>
       </c>
+      <c r="N68" t="s">
+        <v>633</v>
+      </c>
       <c r="O68" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3857,8 +4061,11 @@
       <c r="K69" t="s">
         <v>579</v>
       </c>
+      <c r="N69" t="s">
+        <v>633</v>
+      </c>
       <c r="O69" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3877,8 +4084,11 @@
       <c r="K70" t="s">
         <v>580</v>
       </c>
+      <c r="N70" t="s">
+        <v>633</v>
+      </c>
       <c r="O70" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3900,8 +4110,11 @@
       <c r="K71" t="s">
         <v>581</v>
       </c>
+      <c r="N71" t="s">
+        <v>633</v>
+      </c>
       <c r="O71" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3923,8 +4136,11 @@
       <c r="K72" t="s">
         <v>582</v>
       </c>
+      <c r="N72" t="s">
+        <v>633</v>
+      </c>
       <c r="O72" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3946,8 +4162,11 @@
       <c r="K73" t="s">
         <v>583</v>
       </c>
+      <c r="N73" t="s">
+        <v>633</v>
+      </c>
       <c r="O73" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -3966,8 +4185,11 @@
       <c r="K74" t="s">
         <v>584</v>
       </c>
+      <c r="N74" t="s">
+        <v>633</v>
+      </c>
       <c r="O74" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -3989,8 +4211,11 @@
       <c r="K75" t="s">
         <v>585</v>
       </c>
+      <c r="N75" t="s">
+        <v>633</v>
+      </c>
       <c r="O75" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4012,8 +4237,11 @@
       <c r="K76" t="s">
         <v>586</v>
       </c>
+      <c r="N76" t="s">
+        <v>633</v>
+      </c>
       <c r="O76" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4035,8 +4263,11 @@
       <c r="K77" t="s">
         <v>587</v>
       </c>
+      <c r="N77" t="s">
+        <v>633</v>
+      </c>
       <c r="O77" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4058,8 +4289,11 @@
       <c r="K78" t="s">
         <v>588</v>
       </c>
+      <c r="N78" t="s">
+        <v>633</v>
+      </c>
       <c r="O78" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4081,8 +4315,11 @@
       <c r="K79" t="s">
         <v>589</v>
       </c>
+      <c r="N79" t="s">
+        <v>633</v>
+      </c>
       <c r="O79" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4104,8 +4341,11 @@
       <c r="K80" t="s">
         <v>590</v>
       </c>
+      <c r="N80" t="s">
+        <v>633</v>
+      </c>
       <c r="O80" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4124,8 +4364,11 @@
       <c r="K81" t="s">
         <v>591</v>
       </c>
+      <c r="N81" t="s">
+        <v>633</v>
+      </c>
       <c r="O81" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4147,8 +4390,11 @@
       <c r="K82" t="s">
         <v>592</v>
       </c>
+      <c r="N82" t="s">
+        <v>633</v>
+      </c>
       <c r="O82" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4167,8 +4413,11 @@
       <c r="K83" t="s">
         <v>593</v>
       </c>
+      <c r="N83" t="s">
+        <v>633</v>
+      </c>
       <c r="O83" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4190,8 +4439,11 @@
       <c r="K84" t="s">
         <v>594</v>
       </c>
+      <c r="N84" t="s">
+        <v>633</v>
+      </c>
       <c r="O84" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4213,8 +4465,11 @@
       <c r="K85" t="s">
         <v>595</v>
       </c>
+      <c r="N85" t="s">
+        <v>633</v>
+      </c>
       <c r="O85" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4233,8 +4488,11 @@
       <c r="K86" t="s">
         <v>596</v>
       </c>
+      <c r="N86" t="s">
+        <v>633</v>
+      </c>
       <c r="O86" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4256,8 +4514,11 @@
       <c r="K87" t="s">
         <v>597</v>
       </c>
+      <c r="N87" t="s">
+        <v>633</v>
+      </c>
       <c r="O87" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4279,8 +4540,11 @@
       <c r="K88" t="s">
         <v>598</v>
       </c>
+      <c r="N88" t="s">
+        <v>633</v>
+      </c>
       <c r="O88" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4299,8 +4563,11 @@
       <c r="K89" t="s">
         <v>599</v>
       </c>
+      <c r="N89" t="s">
+        <v>633</v>
+      </c>
       <c r="O89" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4322,8 +4589,11 @@
       <c r="K90" t="s">
         <v>600</v>
       </c>
+      <c r="N90" t="s">
+        <v>633</v>
+      </c>
       <c r="O90" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4345,8 +4615,11 @@
       <c r="K91" t="s">
         <v>601</v>
       </c>
+      <c r="N91" t="s">
+        <v>633</v>
+      </c>
       <c r="O91" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -4368,8 +4641,11 @@
       <c r="K92" t="s">
         <v>602</v>
       </c>
+      <c r="N92" t="s">
+        <v>633</v>
+      </c>
       <c r="O92" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -4391,8 +4667,11 @@
       <c r="K93" t="s">
         <v>603</v>
       </c>
+      <c r="N93" t="s">
+        <v>633</v>
+      </c>
       <c r="O93" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -4411,8 +4690,11 @@
       <c r="K94" t="s">
         <v>604</v>
       </c>
+      <c r="N94" t="s">
+        <v>633</v>
+      </c>
       <c r="O94" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -4431,8 +4713,11 @@
       <c r="K95" t="s">
         <v>605</v>
       </c>
+      <c r="N95" t="s">
+        <v>633</v>
+      </c>
       <c r="O95" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -4454,8 +4739,11 @@
       <c r="K96" t="s">
         <v>606</v>
       </c>
+      <c r="N96" t="s">
+        <v>633</v>
+      </c>
       <c r="O96" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -4474,8 +4762,11 @@
       <c r="K97" t="s">
         <v>607</v>
       </c>
+      <c r="N97" t="s">
+        <v>633</v>
+      </c>
       <c r="O97" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -4497,8 +4788,11 @@
       <c r="K98" t="s">
         <v>608</v>
       </c>
+      <c r="N98" t="s">
+        <v>633</v>
+      </c>
       <c r="O98" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -4520,8 +4814,11 @@
       <c r="K99" t="s">
         <v>609</v>
       </c>
+      <c r="N99" t="s">
+        <v>633</v>
+      </c>
       <c r="O99" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -4540,8 +4837,11 @@
       <c r="K100" t="s">
         <v>610</v>
       </c>
+      <c r="N100" t="s">
+        <v>633</v>
+      </c>
       <c r="O100" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -4560,8 +4860,11 @@
       <c r="K101" t="s">
         <v>611</v>
       </c>
+      <c r="N101" t="s">
+        <v>633</v>
+      </c>
       <c r="O101" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -4580,8 +4883,11 @@
       <c r="K102" t="s">
         <v>612</v>
       </c>
+      <c r="N102" t="s">
+        <v>633</v>
+      </c>
       <c r="O102" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -4603,8 +4909,11 @@
       <c r="K103" t="s">
         <v>613</v>
       </c>
+      <c r="N103" t="s">
+        <v>633</v>
+      </c>
       <c r="O103" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -4623,8 +4932,11 @@
       <c r="K104" t="s">
         <v>614</v>
       </c>
+      <c r="N104" t="s">
+        <v>633</v>
+      </c>
       <c r="O104" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -4646,8 +4958,11 @@
       <c r="K105" t="s">
         <v>615</v>
       </c>
+      <c r="N105" t="s">
+        <v>633</v>
+      </c>
       <c r="O105" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -4669,8 +4984,11 @@
       <c r="K106" t="s">
         <v>616</v>
       </c>
+      <c r="N106" t="s">
+        <v>633</v>
+      </c>
       <c r="O106" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -4692,8 +5010,11 @@
       <c r="K107" t="s">
         <v>617</v>
       </c>
+      <c r="N107" t="s">
+        <v>633</v>
+      </c>
       <c r="O107" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -4715,8 +5036,11 @@
       <c r="K108" t="s">
         <v>618</v>
       </c>
+      <c r="N108" t="s">
+        <v>633</v>
+      </c>
       <c r="O108" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -4735,8 +5059,11 @@
       <c r="K109" t="s">
         <v>619</v>
       </c>
+      <c r="N109" t="s">
+        <v>633</v>
+      </c>
       <c r="O109" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -4758,8 +5085,11 @@
       <c r="K110" t="s">
         <v>620</v>
       </c>
+      <c r="N110" t="s">
+        <v>633</v>
+      </c>
       <c r="O110" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -4781,8 +5111,11 @@
       <c r="K111" t="s">
         <v>621</v>
       </c>
+      <c r="N111" t="s">
+        <v>633</v>
+      </c>
       <c r="O111" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -4801,8 +5134,11 @@
       <c r="K112" t="s">
         <v>622</v>
       </c>
+      <c r="N112" t="s">
+        <v>633</v>
+      </c>
       <c r="O112" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -4824,8 +5160,11 @@
       <c r="K113" t="s">
         <v>623</v>
       </c>
+      <c r="N113" t="s">
+        <v>633</v>
+      </c>
       <c r="O113" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -4847,8 +5186,11 @@
       <c r="K114" t="s">
         <v>624</v>
       </c>
+      <c r="N114" t="s">
+        <v>633</v>
+      </c>
       <c r="O114" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -4867,8 +5209,11 @@
       <c r="K115" t="s">
         <v>625</v>
       </c>
+      <c r="N115" t="s">
+        <v>633</v>
+      </c>
       <c r="O115" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -4890,8 +5235,11 @@
       <c r="K116" t="s">
         <v>626</v>
       </c>
+      <c r="N116" t="s">
+        <v>633</v>
+      </c>
       <c r="O116" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -4913,8 +5261,11 @@
       <c r="K117" t="s">
         <v>627</v>
       </c>
+      <c r="N117" t="s">
+        <v>633</v>
+      </c>
       <c r="O117" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -4933,8 +5284,11 @@
       <c r="K118" t="s">
         <v>628</v>
       </c>
+      <c r="N118" t="s">
+        <v>633</v>
+      </c>
       <c r="O118" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -4956,8 +5310,11 @@
       <c r="K119" t="s">
         <v>629</v>
       </c>
+      <c r="N119" t="s">
+        <v>633</v>
+      </c>
       <c r="O119" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -4979,8 +5336,11 @@
       <c r="K120" t="s">
         <v>630</v>
       </c>
+      <c r="N120" t="s">
+        <v>633</v>
+      </c>
       <c r="O120" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -4999,8 +5359,11 @@
       <c r="K121" t="s">
         <v>631</v>
       </c>
+      <c r="N121" t="s">
+        <v>633</v>
+      </c>
       <c r="O121" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -5022,8 +5385,11 @@
       <c r="K122" t="s">
         <v>632</v>
       </c>
+      <c r="N122" t="s">
+        <v>633</v>
+      </c>
       <c r="O122" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
